--- a/outputs_report/Table_RiskPen.xlsx
+++ b/outputs_report/Table_RiskPen.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSimMacro\PenSimMacro_Data\outputs_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B0D4F3-FA2B-4F2B-880A-D39326336858}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84956486-94FA-4889-A38C-C7F0FA86BB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DC60" sheetId="1" r:id="rId1"/>
     <sheet name="DC75" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -452,14 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -657,25 +652,25 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>0.59970014992503751</v>
+        <v>0.8995502248875562</v>
       </c>
       <c r="E5">
-        <v>66.516741629185404</v>
+        <v>68.415792103948021</v>
       </c>
       <c r="F5">
-        <v>81.047013975968255</v>
+        <v>80.30965672618936</v>
       </c>
       <c r="G5">
-        <v>99.72878929540947</v>
+        <v>98.831154386434875</v>
       </c>
       <c r="H5">
-        <v>126.94887730871113</v>
+        <v>126.57899512187934</v>
       </c>
       <c r="I5">
-        <v>164.42548056176722</v>
+        <v>165.63767532853007</v>
       </c>
       <c r="J5">
-        <v>228.61025400768199</v>
+        <v>231.89329436936555</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -684,13 +679,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.947376873292864</v>
+        <v>8.0360424816912008</v>
       </c>
       <c r="N5">
-        <v>25.080342966531482</v>
+        <v>25.756478502502969</v>
       </c>
       <c r="O5">
-        <v>36.03372174485996</v>
+        <v>37.210351886593607</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -704,25 +699,25 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>1.6991504247876061</v>
+        <v>1.9990004997501249</v>
       </c>
       <c r="E6">
-        <v>59.870064967516242</v>
+        <v>61.419290354822586</v>
       </c>
       <c r="F6">
-        <v>75.135998973275349</v>
+        <v>74.214734965286183</v>
       </c>
       <c r="G6">
-        <v>93.929295597963602</v>
+        <v>92.864309865785629</v>
       </c>
       <c r="H6">
-        <v>122.42823232367917</v>
+        <v>122.27551216398223</v>
       </c>
       <c r="I6">
-        <v>159.36451502818139</v>
+        <v>160.49659582471398</v>
       </c>
       <c r="J6">
-        <v>220.61320512444226</v>
+        <v>224.03447252750104</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -731,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.224212021318051</v>
+        <v>11.338145463414746</v>
       </c>
       <c r="N6">
-        <v>25.39701722585129</v>
+        <v>25.969711632288117</v>
       </c>
       <c r="O6">
-        <v>34.603610731400018</v>
+        <v>35.415153149233575</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -751,40 +746,40 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>9.7951024487756122</v>
+        <v>10.994502748625687</v>
       </c>
       <c r="E7">
-        <v>22.738630684657672</v>
+        <v>24.187906046976511</v>
       </c>
       <c r="F7">
-        <v>55.185253499938419</v>
+        <v>53.482583757784333</v>
       </c>
       <c r="G7">
-        <v>74.666387295489443</v>
+        <v>73.408868624925745</v>
       </c>
       <c r="H7">
-        <v>103.67864748751418</v>
+        <v>103.09545427265184</v>
       </c>
       <c r="I7">
-        <v>144.59278256345675</v>
+        <v>144.9869138232979</v>
       </c>
       <c r="J7">
-        <v>198.20587263914027</v>
+        <v>200.32587256802685</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.1068704464351393</v>
+        <v>5.0682835064784673</v>
       </c>
       <c r="M7">
-        <v>17.098326713125886</v>
+        <v>17.254800263612108</v>
       </c>
       <c r="N7">
-        <v>25.544482553317639</v>
+        <v>25.913304574496244</v>
       </c>
       <c r="O7">
-        <v>31.050860074298843</v>
+        <v>31.525453679334802</v>
       </c>
     </row>
   </sheetData>
@@ -797,13 +792,12 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="11" max="15" width="26.5703125" customWidth="1"/>
+    <col min="4" max="15" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1002,25 +996,25 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>7.0964517741129436</v>
+        <v>8.1459270364817584</v>
       </c>
       <c r="E5">
-        <v>78.660669665167418</v>
+        <v>79.26036981509246</v>
       </c>
       <c r="F5">
-        <v>58.904083256242359</v>
+        <v>58.244546750025314</v>
       </c>
       <c r="G5">
-        <v>71.446267963114011</v>
+        <v>70.923163492604871</v>
       </c>
       <c r="H5">
-        <v>89.643046226659166</v>
+        <v>89.366893381139661</v>
       </c>
       <c r="I5">
-        <v>112.79347259362748</v>
+        <v>113.93743038585343</v>
       </c>
       <c r="J5">
-        <v>150.26189824779109</v>
+        <v>154.26996805478245</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1029,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.636608407083493</v>
+        <v>14.783951891391453</v>
       </c>
       <c r="N5">
-        <v>27.233036013803236</v>
+        <v>27.707557033314636</v>
       </c>
       <c r="O5">
-        <v>35.519470893106224</v>
+        <v>36.34512964843595</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1049,40 +1043,40 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>11.744127936031983</v>
+        <v>13.74312843578211</v>
       </c>
       <c r="E6">
-        <v>71.364317841079455</v>
+        <v>72.863568215892059</v>
       </c>
       <c r="F6">
-        <v>52.732477398443606</v>
+        <v>52.196889775236279</v>
       </c>
       <c r="G6">
-        <v>65.629130138314068</v>
+        <v>65.147812426979669</v>
       </c>
       <c r="H6">
-        <v>84.29046757422114</v>
+        <v>84.149577904901065</v>
       </c>
       <c r="I6">
-        <v>108.07220676183601</v>
+        <v>108.95388787951524</v>
       </c>
       <c r="J6">
-        <v>144.25054313532831</v>
+        <v>147.15608274096954</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.9669086589432423</v>
+        <v>1.3647050340767317</v>
       </c>
       <c r="M6">
-        <v>16.575364763443545</v>
+        <v>16.741348298312246</v>
       </c>
       <c r="N6">
-        <v>27.078848679428638</v>
+        <v>27.527423370443476</v>
       </c>
       <c r="O6">
-        <v>33.974205506124342</v>
+        <v>34.558237957228798</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1096,40 +1090,40 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>30.934532733633183</v>
+        <v>33.033483258370815</v>
       </c>
       <c r="E7">
-        <v>35.382308845577214</v>
+        <v>37.831084457771112</v>
       </c>
       <c r="F7">
-        <v>34.468229216560999</v>
+        <v>33.304600628561744</v>
       </c>
       <c r="G7">
-        <v>47.349155863014836</v>
+        <v>46.655184765325302</v>
       </c>
       <c r="H7">
-        <v>66.277954290811948</v>
+        <v>66.10143245110504</v>
       </c>
       <c r="I7">
-        <v>94.380921596697917</v>
+        <v>94.408941556182597</v>
       </c>
       <c r="J7">
-        <v>130.09262363990692</v>
+        <v>132.28544376567234</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.8185487512670377</v>
+        <v>8.6904715457273003</v>
       </c>
       <c r="M7">
-        <v>18.751174580384841</v>
+        <v>18.845137186989998</v>
       </c>
       <c r="N7">
-        <v>25.565022931152072</v>
+        <v>25.874814797210913</v>
       </c>
       <c r="O7">
-        <v>29.875786654449524</v>
+        <v>30.255951135899533</v>
       </c>
     </row>
   </sheetData>
